--- a/data/case1/18/Plm2_13.xlsx
+++ b/data/case1/18/Plm2_13.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.097155510035705106</v>
+        <v>-0.068707790979985361</v>
       </c>
       <c r="B1" s="0">
-        <v>0.097089299041996924</v>
+        <v>0.068650238769620842</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.050983433712195492</v>
+        <v>0.015387258832618045</v>
       </c>
       <c r="B2" s="0">
-        <v>0.050821890572432693</v>
+        <v>-0.015601913886255758</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.05210753651569533</v>
+        <v>0.11853066833615244</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.05216554012262975</v>
+        <v>-0.11887461911758379</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.23182147975542478</v>
+        <v>-0.16511725079794104</v>
       </c>
       <c r="B4" s="0">
-        <v>0.23054211457524687</v>
+        <v>0.16445802748173932</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.19672392631283486</v>
+        <v>-0.15845802795394093</v>
       </c>
       <c r="B5" s="0">
-        <v>0.19467824744140216</v>
+        <v>0.15714402695076313</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.10511163701336956</v>
+        <v>-0.058978007070919158</v>
       </c>
       <c r="B6" s="0">
-        <v>0.10497704284161324</v>
+        <v>0.058935100551482655</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.058204781087727753</v>
+        <v>-0.038935101119040638</v>
       </c>
       <c r="B7" s="0">
-        <v>0.058015503599005314</v>
+        <v>0.038866935294416649</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.038015504945136946</v>
+        <v>-0.018866935864645384</v>
       </c>
       <c r="B8" s="0">
-        <v>0.037898447641788735</v>
+        <v>0.018837468398170465</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.03189844882608206</v>
+        <v>-0.012837468890983139</v>
       </c>
       <c r="B9" s="0">
-        <v>0.031813067464193878</v>
+        <v>0.012817509510648861</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.025813068656745486</v>
+        <v>-0.0068175100047227488</v>
       </c>
       <c r="B10" s="0">
-        <v>0.025812823849292954</v>
+        <v>0.0068179065507933956</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.021312825023937165</v>
+        <v>-0.0023179070364243159</v>
       </c>
       <c r="B11" s="0">
-        <v>0.021304133639723943</v>
+        <v>0.0023134417709620436</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.015304134834370764</v>
+        <v>0.0036865577347691136</v>
       </c>
       <c r="B12" s="0">
-        <v>0.015277029138081488</v>
+        <v>-0.0037263154920341712</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0092770303381177754</v>
+        <v>0.0097263149982920183</v>
       </c>
       <c r="B13" s="0">
-        <v>0.009274246593234281</v>
+        <v>-0.0097488374661702792</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.0027257521320729339</v>
+        <v>0.021748836938899174</v>
       </c>
       <c r="B14" s="0">
-        <v>-0.0027260907082062857</v>
+        <v>-0.021804246266353466</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>0.0087260895073679734</v>
+        <v>-0.021049532314417974</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.00873031270219915</v>
+        <v>0.021025874001995959</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.009436559779571585</v>
+        <v>-0.015025874495488978</v>
       </c>
       <c r="B16" s="0">
-        <v>0.0094284482500688327</v>
+        <v>0.015004123167893457</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0034284494522545117</v>
+        <v>-0.0090041236631996924</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0034283049070769067</v>
+        <v>0.0089999994873064537</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.036105866472642134</v>
+        <v>-0.037975563363850995</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036095293782523186</v>
+        <v>0.037961044601715344</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027095294912112156</v>
+        <v>-0.027096470583364507</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027012473204511167</v>
+        <v>0.027013615788022083</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018012474344002882</v>
+        <v>-0.018013616279629829</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004068469583245</v>
+        <v>0.018004259459363681</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.009004069610480947</v>
+        <v>-0.0090042599515474109</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999988581839219</v>
+        <v>0.0089999995074254713</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093929428225134615</v>
+        <v>-0.093928754936747794</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093623166947647718</v>
+        <v>0.093621972661406261</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084623168093048484</v>
+        <v>-0.084621973152301244</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084124230211650719</v>
+        <v>0.084124289635691518</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042124231780128696</v>
+        <v>-0.042124290321613245</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999998422711293</v>
+        <v>0.041999999310557534</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.083566611587972517</v>
+        <v>-0.092166020366956758</v>
       </c>
       <c r="B25" s="0">
-        <v>0.083480297401802517</v>
+        <v>0.09205889321120253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.077480298564360339</v>
+        <v>-0.08605889369983899</v>
       </c>
       <c r="B26" s="0">
-        <v>0.077372391398526474</v>
+        <v>0.085926245681783087</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.071372392565822729</v>
+        <v>-0.079926246172705717</v>
       </c>
       <c r="B27" s="0">
-        <v>0.071013951251470253</v>
+        <v>0.079490865523421661</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.065013952439262113</v>
+        <v>-0.073490866023987245</v>
       </c>
       <c r="B28" s="0">
-        <v>0.064787490845688467</v>
+        <v>0.073208677995517668</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.05278749212076228</v>
+        <v>-0.061208678536505801</v>
       </c>
       <c r="B29" s="0">
-        <v>0.052696521164145693</v>
+        <v>0.061083527011989602</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.032696522543467221</v>
+        <v>-0.041083527601204928</v>
       </c>
       <c r="B30" s="0">
-        <v>0.032399941871998017</v>
+        <v>0.040683502020741003</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.017399943198935119</v>
+        <v>-0.027018554516519799</v>
       </c>
       <c r="B31" s="0">
-        <v>0.017304981662022101</v>
+        <v>0.027000781369862281</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060004678728082794</v>
+        <v>-0.0060007819699121612</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999987822756395</v>
+        <v>0.0059999994848576321</v>
       </c>
     </row>
   </sheetData>
